--- a/public/medical_forum/list.xlsx
+++ b/public/medical_forum/list.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27116"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\ant-design-pro-vue\public\medical_forum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED3B026-1504-4EF3-AEDA-207276F307C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28360" windowHeight="16150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,24 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$318</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="673">
   <si>
     <t>12月15-16日第三届中西医结合介入大会专家名单任务</t>
   </si>
@@ -2046,19 +2039,17 @@
   </si>
   <si>
     <t>12月16日18:15-18:20</t>
+  </si>
+  <si>
+    <t>广州中医药大学第一附属医院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2075,151 +2066,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2238,194 +2100,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2448,255 +2124,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2724,15 +2158,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2742,78 +2167,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2826,34 +2197,151 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -2864,7 +2352,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2892,159 +2380,45 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
-      <tableStyleElement type="lastColumn" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="lastColumn" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
-      <tableStyleElement type="pageFieldValues" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="6"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="4"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="3"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="2"/>
+      <tableStyleElement type="pageFieldValues" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="00FFFF00"/>
+      <color rgb="FFFFFF00"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3294,39 +2668,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B318"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
-    <col min="2" max="2" width="11.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.8888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.3333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.36328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" ht="29" customHeight="1" spans="1:6">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3346,7 +2720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3366,7 +2740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3386,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3406,7 +2780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -3426,7 +2800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:6">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3446,17 +2820,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -3466,7 +2840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:6">
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3486,7 +2860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:6">
+    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3506,7 +2880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3526,7 +2900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3546,13 +2920,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -3572,7 +2946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -3592,7 +2966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:6">
+    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -3612,7 +2986,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -3632,7 +3006,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -3652,7 +3026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:6">
+    <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -3672,7 +3046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -3692,7 +3066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -3712,7 +3086,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -3732,15 +3106,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>52</v>
+      <c r="C23" s="16" t="s">
+        <v>672</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>69</v>
@@ -3752,7 +3126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -3772,7 +3146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -3792,7 +3166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -3812,7 +3186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:6">
+    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -3832,7 +3206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" ht="28.8" spans="1:6">
+    <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -3852,7 +3226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -3872,7 +3246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -3892,7 +3266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -3912,7 +3286,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -3932,7 +3306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -3952,7 +3326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -3972,7 +3346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" ht="28.8" spans="1:6">
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -3992,7 +3366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" ht="28.8" spans="1:6">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -4012,7 +3386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:6">
+    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -4032,7 +3406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -4052,7 +3426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>36</v>
       </c>
@@ -4072,7 +3446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>37</v>
       </c>
@@ -4092,7 +3466,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>38</v>
       </c>
@@ -4112,7 +3486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>39</v>
       </c>
@@ -4132,7 +3506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" ht="28.8" spans="1:6">
+    <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>40</v>
       </c>
@@ -4152,7 +3526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" ht="28.8" spans="1:6">
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>41</v>
       </c>
@@ -4172,7 +3546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" ht="28.8" spans="1:6">
+    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>42</v>
       </c>
@@ -4192,7 +3566,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" ht="28.8" spans="1:6">
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43</v>
       </c>
@@ -4212,7 +3586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>44</v>
       </c>
@@ -4232,7 +3606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>45</v>
       </c>
@@ -4252,7 +3626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>46</v>
       </c>
@@ -4272,10 +3646,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>47</v>
       </c>
@@ -4295,7 +3669,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>48</v>
       </c>
@@ -4315,7 +3689,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" ht="28.8" spans="1:6">
+    <row r="53" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>49</v>
       </c>
@@ -4335,7 +3709,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>50</v>
       </c>
@@ -4355,7 +3729,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" ht="28.8" spans="1:6">
+    <row r="55" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>51</v>
       </c>
@@ -4375,17 +3749,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" ht="28.8" spans="1:6">
+    <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="8" t="s">
         <v>156</v>
       </c>
       <c r="E56" s="6" t="s">
@@ -4395,7 +3769,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>53</v>
       </c>
@@ -4415,7 +3789,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>54</v>
       </c>
@@ -4435,7 +3809,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>55</v>
       </c>
@@ -4455,7 +3829,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>56</v>
       </c>
@@ -4475,17 +3849,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>57</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="8" t="s">
         <v>69</v>
       </c>
       <c r="E61" s="6" t="s">
@@ -4495,7 +3869,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" ht="28.8" spans="1:6">
+    <row r="62" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>58</v>
       </c>
@@ -4515,7 +3889,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" ht="28.8" spans="1:6">
+    <row r="63" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>59</v>
       </c>
@@ -4535,7 +3909,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" ht="28.8" spans="1:6">
+    <row r="64" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>60</v>
       </c>
@@ -4555,7 +3929,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" ht="28.8" spans="1:6">
+    <row r="65" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>61</v>
       </c>
@@ -4575,7 +3949,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>62</v>
       </c>
@@ -4595,7 +3969,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>63</v>
       </c>
@@ -4615,7 +3989,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>64</v>
       </c>
@@ -4635,7 +4009,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>65</v>
       </c>
@@ -4655,7 +4029,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>66</v>
       </c>
@@ -4675,7 +4049,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" ht="28.8" spans="1:6">
+    <row r="71" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>67</v>
       </c>
@@ -4695,7 +4069,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" ht="28.8" spans="1:6">
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>68</v>
       </c>
@@ -4715,7 +4089,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" ht="28.8" spans="1:6">
+    <row r="73" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>69</v>
       </c>
@@ -4735,7 +4109,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" ht="28.8" spans="1:6">
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>70</v>
       </c>
@@ -4755,7 +4129,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>71</v>
       </c>
@@ -4775,7 +4149,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>72</v>
       </c>
@@ -4795,7 +4169,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>73</v>
       </c>
@@ -4815,7 +4189,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>74</v>
       </c>
@@ -4835,7 +4209,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>75</v>
       </c>
@@ -4855,7 +4229,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>76</v>
       </c>
@@ -4875,7 +4249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" ht="28.8" spans="1:6">
+    <row r="81" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>77</v>
       </c>
@@ -4895,17 +4269,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" ht="28.8" spans="1:6">
+    <row r="82" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>78</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="8" t="s">
         <v>208</v>
       </c>
       <c r="E82" s="6" t="s">
@@ -4915,7 +4289,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" ht="28.8" spans="1:6">
+    <row r="83" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>79</v>
       </c>
@@ -4935,7 +4309,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>80</v>
       </c>
@@ -4955,7 +4329,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>81</v>
       </c>
@@ -4975,7 +4349,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>82</v>
       </c>
@@ -4995,10 +4369,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>83</v>
       </c>
@@ -5018,7 +4392,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>84</v>
       </c>
@@ -5038,7 +4412,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>85</v>
       </c>
@@ -5058,7 +4432,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>86</v>
       </c>
@@ -5078,7 +4452,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>87</v>
       </c>
@@ -5098,7 +4472,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>88</v>
       </c>
@@ -5118,7 +4492,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>89</v>
       </c>
@@ -5138,7 +4512,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>90</v>
       </c>
@@ -5158,7 +4532,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>91</v>
       </c>
@@ -5178,7 +4552,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>92</v>
       </c>
@@ -5198,7 +4572,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>93</v>
       </c>
@@ -5218,7 +4592,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>94</v>
       </c>
@@ -5238,7 +4612,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>95</v>
       </c>
@@ -5258,17 +4632,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>96</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="8" t="s">
         <v>241</v>
       </c>
       <c r="E101" s="6" t="s">
@@ -5278,7 +4652,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>97</v>
       </c>
@@ -5298,7 +4672,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>98</v>
       </c>
@@ -5318,7 +4692,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>99</v>
       </c>
@@ -5338,7 +4712,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>100</v>
       </c>
@@ -5358,7 +4732,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>101</v>
       </c>
@@ -5378,7 +4752,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>102</v>
       </c>
@@ -5398,7 +4772,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>103</v>
       </c>
@@ -5418,7 +4792,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>104</v>
       </c>
@@ -5438,7 +4812,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>105</v>
       </c>
@@ -5458,7 +4832,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" ht="28.8" spans="1:6">
+    <row r="111" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>106</v>
       </c>
@@ -5478,7 +4852,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>107</v>
       </c>
@@ -5498,7 +4872,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>108</v>
       </c>
@@ -5518,7 +4892,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>109</v>
       </c>
@@ -5538,7 +4912,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>110</v>
       </c>
@@ -5558,7 +4932,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>111</v>
       </c>
@@ -5578,7 +4952,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="117" ht="28.8" spans="1:6">
+    <row r="117" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>112</v>
       </c>
@@ -5598,7 +4972,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" ht="28.8" spans="1:6">
+    <row r="118" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>113</v>
       </c>
@@ -5618,7 +4992,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" ht="28.8" spans="1:6">
+    <row r="119" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>114</v>
       </c>
@@ -5638,7 +5012,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" ht="28.8" spans="1:6">
+    <row r="120" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>115</v>
       </c>
@@ -5658,7 +5032,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>116</v>
       </c>
@@ -5678,7 +5052,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>117</v>
       </c>
@@ -5698,7 +5072,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>118</v>
       </c>
@@ -5718,7 +5092,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>119</v>
       </c>
@@ -5738,7 +5112,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>120</v>
       </c>
@@ -5758,7 +5132,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>121</v>
       </c>
@@ -5778,7 +5152,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>122</v>
       </c>
@@ -5798,7 +5172,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>123</v>
       </c>
@@ -5818,7 +5192,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>124</v>
       </c>
@@ -5838,7 +5212,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>125</v>
       </c>
@@ -5858,7 +5232,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>126</v>
       </c>
@@ -5878,7 +5252,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>127</v>
       </c>
@@ -5898,17 +5272,17 @@
         <v>279</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>128</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E134" s="6" t="s">
@@ -5918,7 +5292,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="135" ht="28.8" spans="1:6">
+    <row r="135" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>129</v>
       </c>
@@ -5938,7 +5312,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="136" ht="28.8" spans="1:6">
+    <row r="136" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>130</v>
       </c>
@@ -5958,7 +5332,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="137" ht="28.8" spans="1:6">
+    <row r="137" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>131</v>
       </c>
@@ -5978,7 +5352,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>132</v>
       </c>
@@ -5998,7 +5372,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>133</v>
       </c>
@@ -6018,7 +5392,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>134</v>
       </c>
@@ -6038,7 +5412,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" ht="28.8" spans="1:6">
+    <row r="141" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>135</v>
       </c>
@@ -6058,7 +5432,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>136</v>
       </c>
@@ -6078,7 +5452,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>137</v>
       </c>
@@ -6098,7 +5472,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>138</v>
       </c>
@@ -6118,7 +5492,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>139</v>
       </c>
@@ -6138,7 +5512,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>140</v>
       </c>
@@ -6158,7 +5532,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>141</v>
       </c>
@@ -6178,7 +5552,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>142</v>
       </c>
@@ -6198,7 +5572,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="149" ht="28.8" spans="1:6">
+    <row r="149" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>143</v>
       </c>
@@ -6218,7 +5592,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" ht="28.8" spans="1:6">
+    <row r="150" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>144</v>
       </c>
@@ -6238,7 +5612,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>145</v>
       </c>
@@ -6258,7 +5632,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="152" ht="28.8" spans="1:6">
+    <row r="152" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>146</v>
       </c>
@@ -6278,7 +5652,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>147</v>
       </c>
@@ -6298,12 +5672,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>149</v>
       </c>
@@ -6323,7 +5697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>150</v>
       </c>
@@ -6343,7 +5717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" ht="28.8" spans="1:6">
+    <row r="157" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>151</v>
       </c>
@@ -6363,7 +5737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" ht="28.8" spans="1:6">
+    <row r="158" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>152</v>
       </c>
@@ -6383,17 +5757,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>153</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="8" t="s">
         <v>355</v>
       </c>
       <c r="E159" s="6" t="s">
@@ -6403,7 +5777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" ht="28.8" spans="1:6">
+    <row r="160" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>154</v>
       </c>
@@ -6423,7 +5797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" ht="28.8" spans="1:6">
+    <row r="161" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>155</v>
       </c>
@@ -6443,7 +5817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" ht="28.8" spans="1:6">
+    <row r="162" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>156</v>
       </c>
@@ -6463,7 +5837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>157</v>
       </c>
@@ -6483,7 +5857,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>158</v>
       </c>
@@ -6503,7 +5877,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="166" ht="28.8" spans="1:6">
+    <row r="166" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>159</v>
       </c>
@@ -6523,7 +5897,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="167" ht="28.8" spans="1:6">
+    <row r="167" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>160</v>
       </c>
@@ -6543,7 +5917,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="168" ht="28.8" spans="1:6">
+    <row r="168" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>161</v>
       </c>
@@ -6563,7 +5937,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>162</v>
       </c>
@@ -6583,7 +5957,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>163</v>
       </c>
@@ -6603,7 +5977,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="171" ht="28.8" spans="1:6">
+    <row r="171" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>164</v>
       </c>
@@ -6623,7 +5997,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>165</v>
       </c>
@@ -6643,7 +6017,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>166</v>
       </c>
@@ -6663,7 +6037,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>167</v>
       </c>
@@ -6683,7 +6057,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="175" ht="28.8" spans="1:6">
+    <row r="175" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>168</v>
       </c>
@@ -6703,7 +6077,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>169</v>
       </c>
@@ -6723,7 +6097,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>170</v>
       </c>
@@ -6743,7 +6117,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>171</v>
       </c>
@@ -6763,7 +6137,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>172</v>
       </c>
@@ -6783,7 +6157,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>173</v>
       </c>
@@ -6803,7 +6177,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="181" ht="28.8" spans="1:6">
+    <row r="181" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>174</v>
       </c>
@@ -6823,7 +6197,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="182" ht="28.8" spans="1:6">
+    <row r="182" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>175</v>
       </c>
@@ -6843,7 +6217,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>176</v>
       </c>
@@ -6863,7 +6237,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="184" ht="28.8" spans="1:6">
+    <row r="184" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>177</v>
       </c>
@@ -6883,7 +6257,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>178</v>
       </c>
@@ -6903,7 +6277,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>179</v>
       </c>
@@ -6923,7 +6297,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>180</v>
       </c>
@@ -6943,7 +6317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>181</v>
       </c>
@@ -6963,7 +6337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" ht="28.8" spans="1:6">
+    <row r="190" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>182</v>
       </c>
@@ -6983,7 +6357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>183</v>
       </c>
@@ -7003,7 +6377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" ht="28.8" spans="1:6">
+    <row r="192" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>184</v>
       </c>
@@ -7023,7 +6397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>185</v>
       </c>
@@ -7043,7 +6417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>186</v>
       </c>
@@ -7063,7 +6437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>187</v>
       </c>
@@ -7083,7 +6457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>188</v>
       </c>
@@ -7103,7 +6477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>189</v>
       </c>
@@ -7123,7 +6497,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>190</v>
       </c>
@@ -7143,11 +6517,11 @@
         <v>454</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>191</v>
       </c>
-      <c r="B200" s="17" t="s">
+      <c r="B200" s="12" t="s">
         <v>456</v>
       </c>
       <c r="C200" s="7"/>
@@ -7161,7 +6535,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>192</v>
       </c>
@@ -7181,7 +6555,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>193</v>
       </c>
@@ -7201,7 +6575,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>194</v>
       </c>
@@ -7221,7 +6595,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>195</v>
       </c>
@@ -7241,7 +6615,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="205" ht="28.8" spans="1:6">
+    <row r="205" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>196</v>
       </c>
@@ -7261,7 +6635,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>197</v>
       </c>
@@ -7281,7 +6655,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>198</v>
       </c>
@@ -7301,7 +6675,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>199</v>
       </c>
@@ -7321,7 +6695,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>200</v>
       </c>
@@ -7341,7 +6715,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>201</v>
       </c>
@@ -7361,7 +6735,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>202</v>
       </c>
@@ -7381,7 +6755,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>203</v>
       </c>
@@ -7401,7 +6775,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="213" ht="28.8" spans="1:6">
+    <row r="213" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>205</v>
       </c>
@@ -7421,7 +6795,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>206</v>
       </c>
@@ -7441,7 +6815,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>207</v>
       </c>
@@ -7461,7 +6835,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>208</v>
       </c>
@@ -7481,7 +6855,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>209</v>
       </c>
@@ -7501,7 +6875,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>210</v>
       </c>
@@ -7521,7 +6895,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>211</v>
       </c>
@@ -7541,7 +6915,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>212</v>
       </c>
@@ -7561,7 +6935,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>213</v>
       </c>
@@ -7581,7 +6955,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>214</v>
       </c>
@@ -7601,7 +6975,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>215</v>
       </c>
@@ -7621,7 +6995,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>216</v>
       </c>
@@ -7641,7 +7015,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>217</v>
       </c>
@@ -7661,7 +7035,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>218</v>
       </c>
@@ -7681,7 +7055,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>219</v>
       </c>
@@ -7701,7 +7075,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>220</v>
       </c>
@@ -7721,7 +7095,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>221</v>
       </c>
@@ -7741,7 +7115,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>222</v>
       </c>
@@ -7761,7 +7135,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>223</v>
       </c>
@@ -7781,7 +7155,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>224</v>
       </c>
@@ -7801,7 +7175,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>225</v>
       </c>
@@ -7821,11 +7195,11 @@
         <v>454</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>226</v>
       </c>
-      <c r="B234" s="18" t="s">
+      <c r="B234" s="12" t="s">
         <v>525</v>
       </c>
       <c r="C234" s="7" t="s">
@@ -7841,7 +7215,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>227</v>
       </c>
@@ -7861,11 +7235,11 @@
         <v>454</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>228</v>
       </c>
-      <c r="B236" s="17" t="s">
+      <c r="B236" s="12" t="s">
         <v>526</v>
       </c>
       <c r="C236" s="7"/>
@@ -7879,7 +7253,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>229</v>
       </c>
@@ -7899,7 +7273,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>230</v>
       </c>
@@ -7919,7 +7293,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>231</v>
       </c>
@@ -7939,7 +7313,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>232</v>
       </c>
@@ -7959,7 +7333,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>233</v>
       </c>
@@ -7979,7 +7353,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>234</v>
       </c>
@@ -7999,7 +7373,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>235</v>
       </c>
@@ -8019,7 +7393,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>236</v>
       </c>
@@ -8039,7 +7413,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>237</v>
       </c>
@@ -8059,7 +7433,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>238</v>
       </c>
@@ -8079,7 +7453,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>239</v>
       </c>
@@ -8099,7 +7473,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>240</v>
       </c>
@@ -8119,7 +7493,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>241</v>
       </c>
@@ -8139,7 +7513,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="251" ht="28.8" spans="1:6">
+    <row r="251" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>242</v>
       </c>
@@ -8159,7 +7533,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>243</v>
       </c>
@@ -8179,7 +7553,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>244</v>
       </c>
@@ -8199,7 +7573,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>245</v>
       </c>
@@ -8219,7 +7593,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>246</v>
       </c>
@@ -8239,7 +7613,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>247</v>
       </c>
@@ -8259,7 +7633,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>248</v>
       </c>
@@ -8279,7 +7653,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>249</v>
       </c>
@@ -8299,7 +7673,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="259" ht="28.8" spans="1:6">
+    <row r="259" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>250</v>
       </c>
@@ -8319,7 +7693,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="260" ht="28.8" spans="1:6">
+    <row r="260" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>251</v>
       </c>
@@ -8339,7 +7713,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="261" ht="28.8" spans="1:6">
+    <row r="261" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>252</v>
       </c>
@@ -8359,7 +7733,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>253</v>
       </c>
@@ -8379,7 +7753,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="263" ht="28.8" spans="1:6">
+    <row r="263" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>254</v>
       </c>
@@ -8399,7 +7773,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>255</v>
       </c>
@@ -8419,7 +7793,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>256</v>
       </c>
@@ -8439,7 +7813,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>257</v>
       </c>
@@ -8459,7 +7833,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>258</v>
       </c>
@@ -8479,7 +7853,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>259</v>
       </c>
@@ -8499,7 +7873,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>260</v>
       </c>
@@ -8519,7 +7893,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>261</v>
       </c>
@@ -8539,7 +7913,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>262</v>
       </c>
@@ -8559,7 +7933,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="272" ht="28.8" spans="1:6">
+    <row r="272" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>263</v>
       </c>
@@ -8579,7 +7953,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>264</v>
       </c>
@@ -8599,7 +7973,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="274" ht="28.8" spans="1:6">
+    <row r="274" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>265</v>
       </c>
@@ -8619,7 +7993,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>266</v>
       </c>
@@ -8639,7 +8013,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>267</v>
       </c>
@@ -8659,7 +8033,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>268</v>
       </c>
@@ -8679,7 +8053,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>269</v>
       </c>
@@ -8692,21 +8066,21 @@
       <c r="D279" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="E279" s="19" t="s">
+      <c r="E279" s="13" t="s">
         <v>604</v>
       </c>
       <c r="F279" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>270</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="C280" s="20" t="s">
+      <c r="C280" s="7" t="s">
         <v>197</v>
       </c>
       <c r="D280" s="8" t="s">
@@ -8719,14 +8093,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="281" ht="28.8" spans="1:6">
+    <row r="281" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>271</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C281" s="20" t="s">
+      <c r="C281" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="8" t="s">
@@ -8739,14 +8113,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>272</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="C282" s="20" t="s">
+      <c r="C282" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D282" s="8" t="s">
@@ -8759,14 +8133,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="283" ht="28.8" spans="1:6">
+    <row r="283" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>273</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C283" s="20" t="s">
+      <c r="C283" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D283" s="8" t="s">
@@ -8779,14 +8153,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>274</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="C284" s="20" t="s">
+      <c r="C284" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="8" t="s">
@@ -8799,14 +8173,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="285" ht="28.8" spans="1:6">
+    <row r="285" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>275</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C285" s="20" t="s">
+      <c r="C285" s="7" t="s">
         <v>250</v>
       </c>
       <c r="D285" s="8" t="s">
@@ -8819,17 +8193,17 @@
         <v>605</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>276</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="C286" s="20" t="s">
+      <c r="C286" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D286" s="21" t="s">
+      <c r="D286" s="14" t="s">
         <v>619</v>
       </c>
       <c r="E286" s="6" t="s">
@@ -8839,14 +8213,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="287" ht="43.2" spans="1:6">
+    <row r="287" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>277</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C287" s="20" t="s">
+      <c r="C287" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="8" t="s">
@@ -8859,14 +8233,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="288" ht="28.8" spans="1:6">
+    <row r="288" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>278</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C288" s="20" t="s">
+      <c r="C288" s="7" t="s">
         <v>199</v>
       </c>
       <c r="D288" s="8" t="s">
@@ -8879,14 +8253,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="289" ht="43.2" spans="1:6">
+    <row r="289" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>279</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C289" s="20" t="s">
+      <c r="C289" s="7" t="s">
         <v>499</v>
       </c>
       <c r="D289" s="8" t="s">
@@ -8899,17 +8273,17 @@
         <v>605</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>280</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="C290" s="20" t="s">
+      <c r="C290" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="D290" s="21" t="s">
+      <c r="D290" s="14" t="s">
         <v>619</v>
       </c>
       <c r="E290" s="6" t="s">
@@ -8919,14 +8293,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="291" ht="43.2" spans="1:6">
+    <row r="291" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>281</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C291" s="20" t="s">
+      <c r="C291" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D291" s="8" t="s">
@@ -8939,14 +8313,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="292" ht="28.8" spans="1:6">
+    <row r="292" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>282</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C292" s="20" t="s">
+      <c r="C292" s="7" t="s">
         <v>633</v>
       </c>
       <c r="D292" s="8" t="s">
@@ -8959,14 +8333,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="293" ht="28.8" spans="1:6">
+    <row r="293" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>283</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C293" s="20" t="s">
+      <c r="C293" s="7" t="s">
         <v>390</v>
       </c>
       <c r="D293" s="8" t="s">
@@ -8979,7 +8353,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="294" ht="28.8" spans="1:6">
+    <row r="294" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>284</v>
       </c>
@@ -8999,14 +8373,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="295" ht="28.8" spans="1:6">
+    <row r="295" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>285</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C295" s="20" t="s">
+      <c r="C295" s="7" t="s">
         <v>221</v>
       </c>
       <c r="D295" s="8" t="s">
@@ -9019,14 +8393,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="296" ht="43.2" spans="1:6">
+    <row r="296" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>286</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C296" s="20" t="s">
+      <c r="C296" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="8" t="s">
@@ -9039,14 +8413,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="297" ht="28.8" spans="1:6">
+    <row r="297" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>287</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="C297" s="20" t="s">
+      <c r="C297" s="7" t="s">
         <v>250</v>
       </c>
       <c r="D297" s="8" t="s">
@@ -9059,14 +8433,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="298" ht="28.8" spans="1:6">
+    <row r="298" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>288</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C298" s="20" t="s">
+      <c r="C298" s="7" t="s">
         <v>299</v>
       </c>
       <c r="D298" s="8" t="s">
@@ -9079,14 +8453,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="299" ht="28.8" spans="1:6">
+    <row r="299" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>289</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C299" s="20" t="s">
+      <c r="C299" s="7" t="s">
         <v>499</v>
       </c>
       <c r="D299" s="8" t="s">
@@ -9099,14 +8473,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="300" ht="43.2" spans="1:6">
+    <row r="300" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>290</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="C300" s="20" t="s">
+      <c r="C300" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="8" t="s">
@@ -9119,14 +8493,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="301" ht="28.8" spans="1:6">
+    <row r="301" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>291</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C301" s="20" t="s">
+      <c r="C301" s="7" t="s">
         <v>633</v>
       </c>
       <c r="D301" s="7" t="s">
@@ -9139,14 +8513,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="302" ht="28.8" spans="1:6">
+    <row r="302" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>292</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C302" s="20" t="s">
+      <c r="C302" s="7" t="s">
         <v>390</v>
       </c>
       <c r="D302" s="7" t="s">
@@ -9159,7 +8533,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="303" ht="28.8" spans="1:6">
+    <row r="303" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>293</v>
       </c>
@@ -9179,14 +8553,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="304" ht="28.8" spans="1:6">
+    <row r="304" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>294</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="C304" s="20" t="s">
+      <c r="C304" s="7" t="s">
         <v>199</v>
       </c>
       <c r="D304" s="8" t="s">
@@ -9199,14 +8573,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="305" ht="28.8" spans="1:6">
+    <row r="305" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>295</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C305" s="20" t="s">
+      <c r="C305" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D305" s="8" t="s">
@@ -9219,14 +8593,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="306" ht="28.8" spans="1:6">
+    <row r="306" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>296</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="C306" s="20" t="s">
+      <c r="C306" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D306" s="8" t="s">
@@ -9239,14 +8613,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="307" ht="28.8" spans="1:6">
+    <row r="307" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>297</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="C307" s="20" t="s">
+      <c r="C307" s="7" t="s">
         <v>197</v>
       </c>
       <c r="D307" s="8" t="s">
@@ -9259,14 +8633,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="308" ht="28.8" spans="1:6">
+    <row r="308" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>298</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="C308" s="20" t="s">
+      <c r="C308" s="7" t="s">
         <v>663</v>
       </c>
       <c r="D308" s="8" t="s">
@@ -9279,14 +8653,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="309" ht="28.8" spans="1:6">
+    <row r="309" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>299</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C309" s="20" t="s">
+      <c r="C309" s="7" t="s">
         <v>250</v>
       </c>
       <c r="D309" s="8" t="s">
@@ -9299,14 +8673,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="310" ht="28.8" spans="1:6">
+    <row r="310" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>300</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="C310" s="20" t="s">
+      <c r="C310" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D310" s="8" t="s">
@@ -9319,14 +8693,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="311" ht="28.8" spans="1:6">
+    <row r="311" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>301</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="C311" s="20" t="s">
+      <c r="C311" s="7" t="s">
         <v>390</v>
       </c>
       <c r="D311" s="8" t="s">
@@ -9339,7 +8713,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="312" ht="28.8" spans="1:6">
+    <row r="312" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>302</v>
       </c>
@@ -9359,7 +8733,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="313" ht="28.8" spans="1:6">
+    <row r="313" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>303</v>
       </c>
@@ -9379,7 +8753,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="314" ht="28.8" spans="1:6">
+    <row r="314" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>304</v>
       </c>
@@ -9399,7 +8773,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="315" ht="28.8" spans="1:6">
+    <row r="315" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>305</v>
       </c>
@@ -9419,7 +8793,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="316" ht="28.8" spans="1:6">
+    <row r="316" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>306</v>
       </c>
@@ -9439,14 +8813,14 @@
         <v>605</v>
       </c>
     </row>
-    <row r="317" ht="28.8" spans="1:6">
+    <row r="317" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>307</v>
       </c>
       <c r="B317" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="C317" s="20" t="s">
+      <c r="C317" s="7" t="s">
         <v>628</v>
       </c>
       <c r="D317" s="8" t="s">
@@ -9459,7 +8833,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>308</v>
       </c>
@@ -9483,10 +8857,10 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B318">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>